--- a/Final version/Q1.xlsx
+++ b/Final version/Q1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1def3063da374f98/Documents/MAP2/Energie economic/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\accol\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{3B93B541-35A5-4D83-B826-A5157722B4EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BB9E0EF-8D0E-4035-BFDA-0129F537D383}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2E3EF9-53CD-4140-86D6-5524F6A34EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8235" yWindow="1305" windowWidth="14040" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Capacity</t>
   </si>
@@ -119,16 +119,10 @@
     <t>PVt</t>
   </si>
   <si>
-    <t>EA*(1-TAX)</t>
-  </si>
-  <si>
     <t>EA</t>
   </si>
   <si>
     <t>Annual EA</t>
-  </si>
-  <si>
-    <t>Annual EA*(1-TAX)</t>
   </si>
 </sst>
 </file>
@@ -518,7 +512,7 @@
   <dimension ref="B2:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,7 +667,7 @@
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21">
         <f>(C18+C19-C20)/(1-C14)</f>
@@ -682,30 +676,15 @@
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22">
-        <f>(C18+C19-C20)</f>
-        <v>1299.4369016629739</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23">
         <f>C21/C16</f>
         <v>175.22521566674197</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24">
-        <f>C23*(1-C14)</f>
-        <v>122.65765096671937</v>
-      </c>
+      <c r="B24" s="1"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
